--- a/output/EFA_Analysis.xlsx
+++ b/output/EFA_Analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,551 +463,353 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>TC (Reliability)_Q1</t>
+          <t>Performance expectancy_Q1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1705218070692537</v>
+        <v>0.1378325225352379</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02643142772717962</v>
+        <v>0.2395007937962073</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.002006729238433968</v>
+        <v>0.6867488861775124</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1325210819582856</v>
+        <v>0.261030310781433</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1993497650169069</v>
+        <v>0.2271605155966016</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>TC (Reliability)_Q2</t>
+          <t>Performance expectancy_Q2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0759455800013638</v>
+        <v>0.2010195002770296</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1432424293986239</v>
+        <v>0.282153869263882</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1351995446382223</v>
+        <v>0.8123031045875531</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2518427017939589</v>
+        <v>0.1969578534453692</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1822029231033238</v>
+        <v>0.08296306790897366</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>TC (Reliability)_Q3</t>
+          <t>Performance expectancy_Q3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2030547019549751</v>
+        <v>0.3458779304231867</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1222533758277759</v>
+        <v>0.3060879758089463</v>
       </c>
       <c r="D4" t="n">
-        <v>0.009500139983098541</v>
+        <v>0.5757554036702214</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1795811206989223</v>
+        <v>0.3153584605793224</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02255907290455748</v>
+        <v>0.3389760718808217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>TC (Reliability)_Q4</t>
+          <t>Performance expectancy_Q4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1786072421110785</v>
+        <v>0.2856624318234753</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.09524118654256536</v>
+        <v>0.6924869165660918</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.05536648318308072</v>
+        <v>0.2835009347296912</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2394462346677317</v>
+        <v>0.2278242627681659</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07878254226247385</v>
+        <v>0.08866384101502994</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>TC (Reliability)_Q5</t>
+          <t>Performance expectancy_Q5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3461466513270216</v>
+        <v>0.267370103389949</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09695964284344008</v>
+        <v>0.6099057403105771</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.04548923306198389</v>
+        <v>0.2329096902431271</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2229319413620883</v>
+        <v>0.249634440314359</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2023165639775454</v>
+        <v>0.2786742487423621</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>TC (Reliability)_Q6</t>
+          <t>Effort expectancy_Q1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07795921872336684</v>
+        <v>0.29479485321476</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1262327369675998</v>
+        <v>0.217737644618045</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02593049333447415</v>
+        <v>0.3024419682746888</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1638459783836525</v>
+        <v>0.2141074707391919</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.02183070993130501</v>
+        <v>0.8513846936897023</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>DU (Responsiveness)_Q1</t>
+          <t>Effort expectancy_Q2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05624723348190604</v>
+        <v>0.2288668692639022</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08848359598506528</v>
+        <v>0.4204968904957943</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08344754800925085</v>
+        <v>0.3614397517132323</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4665353583744596</v>
+        <v>0.6287909586719088</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05666491119900707</v>
+        <v>0.2198386937760613</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>DU (Responsiveness)_Q2</t>
+          <t>Effort expectancy_Q3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.02301251798360326</v>
+        <v>0.3413683458898407</v>
       </c>
       <c r="C9" t="n">
-        <v>0.896053514790344</v>
+        <v>0.1924245829041311</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1453753991171877</v>
+        <v>0.241408674707721</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.04737101669662827</v>
+        <v>0.8359019086451218</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.08247913260468608</v>
+        <v>0.1975493084953816</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DU (Responsiveness)_Q3</t>
+          <t>Effort expectancy_Q4</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9513642391094237</v>
+        <v>0.3369285968035527</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.02000578284249247</v>
+        <v>0.3976444922094147</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05648336907528738</v>
+        <v>0.2836184651391908</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1121782299213454</v>
+        <v>0.634727551470695</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01010638725363043</v>
+        <v>0.05926507833968141</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>DU (Responsiveness)_Q4</t>
+          <t>Effort expectancy_Q5</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2333863372123476</v>
+        <v>0.2206477257224093</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1808529298391148</v>
+        <v>0.4113785200499454</v>
       </c>
       <c r="D11" t="n">
-        <v>0.163403269794382</v>
+        <v>0.2226288720746089</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04916819730898474</v>
+        <v>0.2914669477548779</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6826794647063305</v>
+        <v>0.02619423578812575</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>DU (Responsiveness)_Q5</t>
+          <t>Social influence_Q1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.002177164794864466</v>
+        <v>0.2572443190113609</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2512918512144993</v>
+        <v>0.7166434025393243</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.06704358600724261</v>
+        <v>0.1728892882800039</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1857136994895379</v>
+        <v>0.1953632813744938</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1848131554485612</v>
+        <v>0.09405241001529005</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HH (Tangible)_Q1</t>
+          <t>Social influence_Q2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01935101019855607</v>
+        <v>0.373556534299157</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05996273619832261</v>
+        <v>0.4310496090628553</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1760116782227178</v>
+        <v>0.2413945163049832</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0290353867392724</v>
+        <v>0.06501115450419491</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04079461927839442</v>
+        <v>0.2045046168426916</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HH (Tangible)_Q2</t>
+          <t>Social influence_Q3</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.15792380470226</v>
+        <v>0.549703225737776</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03003186737299604</v>
+        <v>0.2353551711795016</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1882574022157093</v>
+        <v>0.05458662622151009</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3582830560017579</v>
+        <v>0.09772895987423019</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1189990730131964</v>
+        <v>0.1216541754818737</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>HH (Tangible)_Q3</t>
+          <t>Facilitating conditions_Q1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.07695642464026933</v>
+        <v>0.8430657131554663</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1130413970723798</v>
+        <v>0.239602865301352</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1952497310914909</v>
+        <v>0.2262506777459648</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02560606524651137</v>
+        <v>0.292025055856788</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.03339927431819831</v>
+        <v>0.1543092050743395</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>HH (Tangible)_Q4</t>
+          <t>Facilitating conditions_Q2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.04423470860614379</v>
+        <v>0.8610560546366915</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2703808331873297</v>
+        <v>0.2339568768815833</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1377640262374142</v>
+        <v>0.1944877427940138</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1490099911829852</v>
+        <v>0.2258550482266401</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1242253037045739</v>
+        <v>0.1289511953063442</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>HH (Tangible)_Q5</t>
+          <t>Facilitating conditions_Q3</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.04002877725728318</v>
+        <v>0.7555036323056991</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00276515757338323</v>
+        <v>0.2738776826013527</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3532697862119693</v>
+        <v>0.2172251652301964</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2608357659730003</v>
+        <v>0.295710416510451</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01274128265549828</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>DC (Empathy_Q1</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.04975436873777141</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0545668371022618</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.2233433838931006</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-0.2617073092331337</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.03266859989810047</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>DC (Empathy_Q2</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.003589399604061901</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.129760652801168</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.5535252954444967</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.1016182709548012</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.001951584185442341</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>DC (Empathy_Q3</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.04310904291599352</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.09577770358346165</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.7121171350737432</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-0.1069339980814041</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.09628657610703807</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>DC (Empathy_Q4</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.1311215016002561</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-0.118062870940115</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.3190964072352012</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-0.1636633635120439</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.1705485972436708</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>DC (Empathy_Q5</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.04802480911983689</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.06044790137977111</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.03651518313039148</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-0.1722064619435599</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.03406069610915893</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>PV (Supportive)_Q1</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.1229501919487314</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.02926623550332086</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-0.004496870796046867</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.5141449337295954</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.05316086721003381</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>PV (Supportive)_Q2</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.01544917562348455</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.9364096123297004</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-0.2497852599068685</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-0.04850747270513753</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.04680740533238844</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>PV (Supportive)_Q3</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.9484785116986524</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.02024590103685803</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-0.01890233546551064</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-0.1023232466087038</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.004626718706772305</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>PV (Supportive)_Q4</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.01958092506451153</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.1833179026517717</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.03640157703967652</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-0.08433403409013714</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.6427651448755852</v>
+        <v>0.1147524569011461</v>
       </c>
     </row>
   </sheetData>
